--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/trans/BESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A957846-44A9-544E-B92E-DA26D26B3E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56593B32-7C0F-8C4F-A88C-0AFC26789E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="460" windowWidth="14060" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="500" windowWidth="14060" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId8"/>
+    <pivotCache cacheId="53" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="284">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -883,6 +883,15 @@
   </si>
   <si>
     <t>State Rebates + Tax Credits Updated 8/11/2021</t>
+  </si>
+  <si>
+    <t>Note: this does not include the IRA subsidies</t>
+  </si>
+  <si>
+    <t>The file expressely excludes the IRA related subsidies - more modeling is required to understand</t>
+  </si>
+  <si>
+    <t>which models will apply under the requirements.</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,6 +1232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
   </cellXfs>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44420.463605671299" refreshedVersion="7" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44819.670905439816" refreshedVersion="8" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales"/>
   </cacheSource>
@@ -2169,7 +2181,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="19">
+        <item x="10"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Type" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="2019 U.S. EV SALES" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JAN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="FEB" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="MAR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="APR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="MAY" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JUN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JUL" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="AUG" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="SEP" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OCT" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="NOV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="DEC" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="TOTAL" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G22:J41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -2288,126 +2420,6 @@
     <dataField name="Sum of JAN" fld="3" baseField="0"/>
     <dataField name="Sum of FEB" fld="4" baseField="0"/>
     <dataField name="Sum of MAR" fld="5" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="19">
-        <item x="10"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Type" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="2019 U.S. EV SALES" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JAN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="FEB" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="MAR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="APR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="MAY" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JUN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JUL" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="AUG" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="SEP" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OCT" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="NOV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="DEC" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="TOTAL" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2618,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2637,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="50">
-        <v>44420</v>
+        <v>44819</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -3060,6 +3072,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>282</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="F40" s="5" t="s">
         <v>104</v>
@@ -3069,6 +3084,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>283</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>106</v>
@@ -6029,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6162,95 +6180,72 @@
         <v>1913.0458308533109</v>
       </c>
       <c r="E3" s="11">
-        <f>BAU!G92</f>
-        <v>1531.9111519939402</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f>BAU!H92</f>
-        <v>1131.4322818029341</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>BAU!I92</f>
-        <v>933.18813916995919</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
-        <f>BAU!J92</f>
-        <v>933.18813916995953</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
-        <f>BAU!K92</f>
-        <v>744.00735890914916</v>
+        <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>BAU!L92</f>
-        <v>744.00735890914984</v>
+        <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>BAU!M92</f>
-        <v>621.92251501542137</v>
+        <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>BAU!N92</f>
-        <v>240.24673989502756</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>BAU!O92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="N3" s="11">
-        <f>BAU!P92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="O3" s="11">
-        <f>BAU!Q92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="P3" s="11">
-        <f>BAU!R92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
-        <f>BAU!S92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11">
-        <f>BAU!T92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="S3" s="11">
-        <f>BAU!U92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="T3" s="11">
-        <f>BAU!V92</f>
         <v>0</v>
       </c>
       <c r="U3" s="11">
-        <f>BAU!W92</f>
         <v>0</v>
       </c>
       <c r="V3" s="11">
-        <f>BAU!X92</f>
         <v>0</v>
       </c>
       <c r="W3" s="11">
-        <f>BAU!Y92</f>
         <v>0</v>
       </c>
       <c r="X3" s="11">
-        <f>BAU!Z92</f>
         <v>0</v>
       </c>
       <c r="Y3" s="11">
-        <f>BAU!AA92</f>
         <v>0</v>
       </c>
       <c r="Z3" s="11">
-        <f>BAU!AB92</f>
         <v>0</v>
       </c>
       <c r="AA3" s="11">
-        <f>BAU!AC92</f>
         <v>0</v>
       </c>
       <c r="AB3" s="11">
@@ -6276,6 +6271,9 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
+      <c r="E4" s="51" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
@@ -6990,63 +6988,63 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="2"/>
-        <v>8.4949942311859553E-2</v>
+        <v>5.2673495960996332E-2</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="2"/>
-        <v>7.7815516718443237E-2</v>
+        <v>5.3570816333527622E-2</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>7.4695255254706203E-2</v>
+        <v>5.4392049187817926E-2</v>
       </c>
       <c r="H33" s="12">
         <f t="shared" si="2"/>
-        <v>7.5736156554799469E-2</v>
+        <v>5.5150019081906601E-2</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="2"/>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f t="shared" si="2"/>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="12">
         <f t="shared" si="2"/>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="R33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="S33" s="12">
         <f t="shared" si="2"/>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="T33" s="12">
         <f t="shared" si="2"/>
@@ -20411,7 +20409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -20425,7 +20423,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="8" t="s">
         <v>266</v>
       </c>
@@ -20437,7 +20435,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8">
         <v>200000</v>
       </c>
@@ -20446,7 +20444,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="D4" s="8">
         <v>200000</v>
       </c>
@@ -21838,63 +21836,63 @@
       </c>
       <c r="I2" s="40">
         <f>Data!E33</f>
-        <v>8.4949942311859553E-2</v>
+        <v>5.2673495960996332E-2</v>
       </c>
       <c r="J2" s="40">
         <f>Data!F33</f>
-        <v>7.7815516718443237E-2</v>
+        <v>5.3570816333527622E-2</v>
       </c>
       <c r="K2" s="40">
         <f>Data!G33</f>
-        <v>7.4695255254706203E-2</v>
+        <v>5.4392049187817926E-2</v>
       </c>
       <c r="L2" s="40">
         <f>Data!H33</f>
-        <v>7.5736156554799469E-2</v>
+        <v>5.5150019081906601E-2</v>
       </c>
       <c r="M2" s="40">
         <f>Data!I33</f>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="40">
         <f>Data!J33</f>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="40">
         <f>Data!K33</f>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="40">
         <f>Data!L33</f>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="40">
         <f>Data!M33</f>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="40">
         <f>Data!N33</f>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="40">
         <f>Data!O33</f>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="40">
         <f>Data!P33</f>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="40">
         <f>Data!Q33</f>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="40">
         <f>Data!R33</f>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="40">
         <f>Data!S33</f>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="40">
         <f>Data!T33</f>
